--- a/Economics/Dissertation/Relevant Data/Labour Costs and Shares.xlsx
+++ b/Economics/Dissertation/Relevant Data/Labour Costs and Shares.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University Documents\Notes\PPE\Shared Notes\Economics\Dissertation\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6E5885-CD18-4B1F-BD80-2ADEF9D1B425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E38A683-9CE0-4D93-B146-4A40EBCA5AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_sheet" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="487">
   <si>
     <t>Labour costs and labour income, UK</t>
   </si>
@@ -1524,6 +1524,15 @@
   <si>
     <t>YoY change</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
 </sst>
 </file>
 
@@ -2088,10 +2097,13 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Quarterly_ALCH_back_series" displayName="Quarterly_ALCH_back_series" ref="A3:B221" totalsRowShown="0">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Quarterly_ALCH_back_series" displayName="Quarterly_ALCH_back_series" ref="A3:D221" totalsRowShown="0">
+  <autoFilter ref="A3:D221" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Quarter"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Whole economy"/>
+    <tableColumn id="3" xr3:uid="{696F829F-63CE-4C9A-877E-54D9F32CAB00}" name="Yearly"/>
+    <tableColumn id="4" xr3:uid="{D360E6D7-3DF1-4DB6-A951-947FF14E8E73}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6040,8 +6052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:A71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32164,9 +32176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -48450,8 +48460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59378,1777 +59388,2642 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3.3544499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>3.7458749999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>181</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>4.2675749999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>376</v>
       </c>
       <c r="B7" s="15">
         <v>3.2206000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7">
+        <v>5.1145750000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>377</v>
       </c>
       <c r="B8" s="15">
         <v>3.3014000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8">
+        <v>6.8023500000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>378</v>
       </c>
       <c r="B9" s="15">
         <v>3.4097</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9">
+        <v>7.8351749999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>379</v>
       </c>
       <c r="B10" s="15">
         <v>3.4861</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="18">
+        <f>AVERAGE(B7:B10)</f>
+        <v>3.3544499999999999</v>
+      </c>
+      <c r="D10">
+        <v>8.5522500000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>380</v>
       </c>
       <c r="B11" s="15">
         <v>3.5828000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D11">
+        <v>9.6730499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>381</v>
       </c>
       <c r="B12" s="15">
         <v>3.6871999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12">
+        <v>11.224675000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>382</v>
       </c>
       <c r="B13" s="15">
         <v>3.7791999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D13">
+        <v>13.602425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>383</v>
       </c>
       <c r="B14" s="15">
         <v>3.9342999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="18">
+        <f t="shared" ref="C14" si="0">AVERAGE(B11:B14)</f>
+        <v>3.7458749999999998</v>
+      </c>
+      <c r="D14">
+        <v>15.500775000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>384</v>
       </c>
       <c r="B15" s="15">
         <v>4.0533999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>484</v>
+      </c>
+      <c r="D15">
+        <v>16.886425000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>385</v>
       </c>
       <c r="B16" s="15">
         <v>4.1845999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>484</v>
+      </c>
+      <c r="D16">
+        <v>18.232899999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>386</v>
       </c>
       <c r="B17" s="15">
         <v>4.3285</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17">
+        <v>19.068625000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>387</v>
       </c>
       <c r="B18" s="15">
         <v>4.5038</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="18">
+        <f t="shared" ref="C18" si="1">AVERAGE(B15:B18)</f>
+        <v>4.2675749999999999</v>
+      </c>
+      <c r="D18">
+        <v>20.227824999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>388</v>
       </c>
       <c r="B19" s="15">
         <v>4.6288999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D19">
+        <v>21.818674999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>389</v>
       </c>
       <c r="B20" s="15">
         <v>4.8429000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20">
+        <v>22.892899999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>390</v>
       </c>
       <c r="B21" s="15">
         <v>5.2842000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>484</v>
+      </c>
+      <c r="D21">
+        <v>24.538825000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>391</v>
       </c>
       <c r="B22" s="15">
         <v>5.7023000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="18">
+        <f t="shared" ref="C22" si="2">AVERAGE(B19:B22)</f>
+        <v>5.1145750000000003</v>
+      </c>
+      <c r="D22">
+        <v>26.558399999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>392</v>
       </c>
       <c r="B23" s="15">
         <v>6.3517000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>484</v>
+      </c>
+      <c r="D23">
+        <v>29.5106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>393</v>
       </c>
       <c r="B24" s="15">
         <v>6.5810000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>484</v>
+      </c>
+      <c r="D24">
+        <v>32.763600000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>394</v>
       </c>
       <c r="B25" s="15">
         <v>7.0366999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25">
+        <v>34.944974999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>395</v>
       </c>
       <c r="B26" s="15">
         <v>7.24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="18">
+        <f t="shared" ref="C26" si="3">AVERAGE(B23:B26)</f>
+        <v>6.8023500000000006</v>
+      </c>
+      <c r="D26">
+        <v>36.514675000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B27" s="15">
         <v>7.5023999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>484</v>
+      </c>
+      <c r="D27">
+        <v>37.227275000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>397</v>
       </c>
       <c r="B28" s="15">
         <v>7.7420999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D28">
+        <v>38.461874999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>398</v>
       </c>
       <c r="B29" s="15">
         <v>7.9583000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>484</v>
+      </c>
+      <c r="D29">
+        <v>40.017300000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>399</v>
       </c>
       <c r="B30" s="15">
         <v>8.1379000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="18">
+        <f t="shared" ref="C30" si="4">AVERAGE(B27:B30)</f>
+        <v>7.8351749999999996</v>
+      </c>
+      <c r="D30">
+        <v>42.1203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>400</v>
       </c>
       <c r="B31" s="15">
         <v>8.3253000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>484</v>
+      </c>
+      <c r="D31">
+        <v>43.936875000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>401</v>
       </c>
       <c r="B32" s="15">
         <v>8.4143000000000008</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>484</v>
+      </c>
+      <c r="D32">
+        <v>47.127775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>402</v>
       </c>
       <c r="B33" s="15">
         <v>8.5833999999999993</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>484</v>
+      </c>
+      <c r="D33">
+        <v>50.432699999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>403</v>
       </c>
       <c r="B34" s="15">
         <v>8.8859999999999992</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="18">
+        <f t="shared" ref="C34" si="5">AVERAGE(B31:B34)</f>
+        <v>8.5522500000000008</v>
+      </c>
+      <c r="D34">
+        <v>53.137599999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>404</v>
       </c>
       <c r="B35" s="15">
         <v>9.2405000000000008</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>484</v>
+      </c>
+      <c r="D35">
+        <v>54.599575000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>405</v>
       </c>
       <c r="B36" s="15">
         <v>9.5546000000000006</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>484</v>
+      </c>
+      <c r="D36">
+        <v>57.031199999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>406</v>
       </c>
       <c r="B37" s="15">
         <v>9.8140000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D37">
+        <v>60.229349999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>407</v>
       </c>
       <c r="B38" s="15">
         <v>10.0831</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="18">
+        <f t="shared" ref="C38" si="6">AVERAGE(B35:B38)</f>
+        <v>9.6730499999999999</v>
+      </c>
+      <c r="D38">
+        <v>62.92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>408</v>
       </c>
       <c r="B39" s="15">
         <v>10.4864</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>484</v>
+      </c>
+      <c r="D39">
+        <v>66.220574999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>409</v>
       </c>
       <c r="B40" s="15">
         <v>10.897500000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>484</v>
+      </c>
+      <c r="D40">
+        <v>69.643799999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>410</v>
       </c>
       <c r="B41" s="15">
         <v>11.4556</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>484</v>
+      </c>
+      <c r="D41">
+        <v>70.393675000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B42" s="15">
         <v>12.059200000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="18">
+        <f t="shared" ref="C42" si="7">AVERAGE(B39:B42)</f>
+        <v>11.224675000000001</v>
+      </c>
+      <c r="D42">
+        <v>72.061750000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>412</v>
       </c>
       <c r="B43" s="15">
         <v>12.670400000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>484</v>
+      </c>
+      <c r="D43">
+        <v>73.477000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>413</v>
       </c>
       <c r="B44" s="15">
         <v>13.321999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>484</v>
+      </c>
+      <c r="D44">
+        <v>74.591175000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>414</v>
       </c>
       <c r="B45" s="15">
         <v>13.959199999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>484</v>
+      </c>
+      <c r="D45">
+        <v>74.411625000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>415</v>
       </c>
       <c r="B46" s="15">
         <v>14.4581</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="18">
+        <f t="shared" ref="C46" si="8">AVERAGE(B43:B46)</f>
+        <v>13.602425</v>
+      </c>
+      <c r="D46">
+        <v>75.850149999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>416</v>
       </c>
       <c r="B47" s="15">
         <v>14.887499999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>484</v>
+      </c>
+      <c r="D47">
+        <v>75.631174999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>417</v>
       </c>
       <c r="B48" s="15">
         <v>15.245900000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>484</v>
+      </c>
+      <c r="D48">
+        <v>77.106175000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>418</v>
       </c>
       <c r="B49" s="15">
         <v>15.719099999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D49">
+        <v>79.011375000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>419</v>
       </c>
       <c r="B50" s="15">
         <v>16.150600000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="18">
+        <f t="shared" ref="C50" si="9">AVERAGE(B47:B50)</f>
+        <v>15.500775000000001</v>
+      </c>
+      <c r="D50">
+        <v>81.504750000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>420</v>
       </c>
       <c r="B51" s="15">
         <v>16.494199999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>484</v>
+      </c>
+      <c r="D51">
+        <v>84.164025000000009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>421</v>
       </c>
       <c r="B52" s="15">
         <v>16.726800000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>484</v>
+      </c>
+      <c r="D52">
+        <v>86.4589</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>422</v>
       </c>
       <c r="B53" s="15">
         <v>16.9847</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>484</v>
+      </c>
+      <c r="D53">
+        <v>92.531100000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>423</v>
       </c>
       <c r="B54" s="15">
         <v>17.34</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="18">
+        <f t="shared" ref="C54" si="10">AVERAGE(B51:B54)</f>
+        <v>16.886425000000003</v>
+      </c>
+      <c r="D54">
+        <v>94.440174999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>424</v>
       </c>
       <c r="B55" s="15">
         <v>17.831099999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>484</v>
+      </c>
+      <c r="D55">
+        <v>99.99584999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>425</v>
       </c>
       <c r="B56" s="15">
         <v>18.1264</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>484</v>
+      </c>
+      <c r="D56">
+        <v>106.82770000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>426</v>
       </c>
       <c r="B57" s="15">
         <v>18.401399999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>427</v>
       </c>
       <c r="B58" s="15">
         <v>18.572700000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="18">
+        <f t="shared" ref="C58" si="11">AVERAGE(B55:B58)</f>
+        <v>18.232899999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>428</v>
       </c>
       <c r="B59" s="15">
         <v>18.732500000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>429</v>
       </c>
       <c r="B60" s="15">
         <v>18.8643</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>430</v>
       </c>
       <c r="B61" s="15">
         <v>19.1648</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>431</v>
       </c>
       <c r="B62" s="15">
         <v>19.512899999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="18">
+        <f t="shared" ref="C62" si="12">AVERAGE(B59:B62)</f>
+        <v>19.068625000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B63" s="15">
         <v>19.697099999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>433</v>
       </c>
       <c r="B64" s="15">
         <v>19.992599999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>434</v>
       </c>
       <c r="B65" s="15">
         <v>20.49</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>435</v>
       </c>
       <c r="B66" s="15">
         <v>20.7316</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="18">
+        <f t="shared" ref="C66" si="13">AVERAGE(B63:B66)</f>
+        <v>20.227824999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>436</v>
       </c>
       <c r="B67" s="15">
         <v>21.292999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>437</v>
       </c>
       <c r="B68" s="15">
         <v>21.737400000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>438</v>
       </c>
       <c r="B69" s="15">
         <v>21.997399999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>439</v>
       </c>
       <c r="B70" s="15">
         <v>22.2469</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="18">
+        <f t="shared" ref="C70" si="14">AVERAGE(B67:B70)</f>
+        <v>21.818674999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>440</v>
       </c>
       <c r="B71" s="15">
         <v>22.391500000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>441</v>
       </c>
       <c r="B72" s="15">
         <v>22.712399999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>442</v>
       </c>
       <c r="B73" s="15">
         <v>23.0261</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>443</v>
       </c>
       <c r="B74" s="15">
         <v>23.441600000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="18">
+        <f t="shared" ref="C74" si="15">AVERAGE(B71:B74)</f>
+        <v>22.892899999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>444</v>
       </c>
       <c r="B75" s="15">
         <v>23.8492</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>445</v>
       </c>
       <c r="B76" s="15">
         <v>24.233899999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>446</v>
       </c>
       <c r="B77" s="15">
         <v>24.7728</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>447</v>
       </c>
       <c r="B78" s="15">
         <v>25.299399999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="18">
+        <f t="shared" ref="C78" si="16">AVERAGE(B75:B78)</f>
+        <v>24.538825000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>448</v>
       </c>
       <c r="B79" s="15">
         <v>25.657</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>449</v>
       </c>
       <c r="B80" s="15">
         <v>26.164999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>450</v>
       </c>
       <c r="B81" s="15">
         <v>26.791799999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>451</v>
       </c>
       <c r="B82" s="15">
         <v>27.619800000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="18">
+        <f t="shared" ref="C82" si="17">AVERAGE(B79:B82)</f>
+        <v>26.558399999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>452</v>
       </c>
       <c r="B83" s="15">
         <v>28.436299999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B84" s="15">
         <v>29.223600000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>454</v>
       </c>
       <c r="B85" s="15">
         <v>29.886500000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>455</v>
       </c>
       <c r="B86" s="15">
         <v>30.495999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="18">
+        <f t="shared" ref="C86" si="18">AVERAGE(B83:B86)</f>
+        <v>29.5106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>456</v>
       </c>
       <c r="B87" s="15">
         <v>31.387</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>457</v>
       </c>
       <c r="B88" s="15">
         <v>32.270899999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>458</v>
       </c>
       <c r="B89" s="15">
         <v>33.2712</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>459</v>
       </c>
       <c r="B90" s="15">
         <v>34.125300000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="18">
+        <f t="shared" ref="C90" si="19">AVERAGE(B87:B90)</f>
+        <v>32.763600000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>460</v>
       </c>
       <c r="B91" s="15">
         <v>34.650799999999997</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>461</v>
       </c>
       <c r="B92" s="15">
         <v>34.532699999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>462</v>
       </c>
       <c r="B93" s="15">
         <v>35.003999999999998</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>463</v>
       </c>
       <c r="B94" s="15">
         <v>35.592399999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" s="18">
+        <f t="shared" ref="C94" si="20">AVERAGE(B91:B94)</f>
+        <v>34.944974999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>464</v>
       </c>
       <c r="B95" s="15">
         <v>35.786700000000003</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>465</v>
       </c>
       <c r="B96" s="15">
         <v>36.297400000000003</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>466</v>
       </c>
       <c r="B97" s="15">
         <v>36.746600000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>467</v>
       </c>
       <c r="B98" s="15">
         <v>37.228000000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="18">
+        <f t="shared" ref="C98" si="21">AVERAGE(B95:B98)</f>
+        <v>36.514675000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>468</v>
       </c>
       <c r="B99" s="15">
         <v>37.077399999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>469</v>
       </c>
       <c r="B100" s="15">
         <v>37.043300000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>470</v>
       </c>
       <c r="B101" s="15">
         <v>37.355600000000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>471</v>
       </c>
       <c r="B102" s="15">
         <v>37.4328</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="18">
+        <f t="shared" ref="C102" si="22">AVERAGE(B99:B102)</f>
+        <v>37.227275000000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>472</v>
       </c>
       <c r="B103" s="15">
         <v>37.895600000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>473</v>
       </c>
       <c r="B104" s="15">
         <v>38.334699999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>474</v>
       </c>
       <c r="B105" s="15">
         <v>38.634099999999997</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>475</v>
       </c>
       <c r="B106" s="15">
         <v>38.9831</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="18">
+        <f t="shared" ref="C106" si="23">AVERAGE(B103:B106)</f>
+        <v>38.461874999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>476</v>
       </c>
       <c r="B107" s="15">
         <v>39.532600000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>477</v>
       </c>
       <c r="B108" s="15">
         <v>39.837400000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>478</v>
       </c>
       <c r="B109" s="15">
         <v>40.259700000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>479</v>
       </c>
       <c r="B110" s="15">
         <v>40.439500000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="18">
+        <f t="shared" ref="C110" si="24">AVERAGE(B107:B110)</f>
+        <v>40.017300000000006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>195</v>
       </c>
       <c r="B111" s="15">
         <v>41.001199999999997</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>196</v>
       </c>
       <c r="B112" s="15">
         <v>41.876199999999997</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B113" s="15">
         <v>42.581099999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B114" s="15">
         <v>43.0227</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="18">
+        <f t="shared" ref="C114" si="25">AVERAGE(B111:B114)</f>
+        <v>42.1203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>199</v>
       </c>
       <c r="B115" s="15">
         <v>42.8371</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>200</v>
       </c>
       <c r="B116" s="15">
         <v>43.660800000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>201</v>
       </c>
       <c r="B117" s="15">
         <v>44.338799999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>202</v>
       </c>
       <c r="B118" s="15">
         <v>44.910800000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="18">
+        <f t="shared" ref="C118" si="26">AVERAGE(B115:B118)</f>
+        <v>43.936875000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>203</v>
       </c>
       <c r="B119" s="15">
         <v>45.989699999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>204</v>
       </c>
       <c r="B120" s="15">
         <v>46.9024</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>205</v>
       </c>
       <c r="B121" s="15">
         <v>47.546300000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>206</v>
       </c>
       <c r="B122" s="15">
         <v>48.072699999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="18">
+        <f t="shared" ref="C122" si="27">AVERAGE(B119:B122)</f>
+        <v>47.127775</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>207</v>
       </c>
       <c r="B123" s="15">
         <v>49.3508</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>208</v>
       </c>
       <c r="B124" s="15">
         <v>49.783299999999997</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B125" s="15">
         <v>50.836399999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>210</v>
       </c>
       <c r="B126" s="15">
         <v>51.760300000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" s="18">
+        <f t="shared" ref="C126" si="28">AVERAGE(B123:B126)</f>
+        <v>50.432699999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>211</v>
       </c>
       <c r="B127" s="15">
         <v>53.162500000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>212</v>
       </c>
       <c r="B128" s="15">
         <v>52.726500000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>213</v>
       </c>
       <c r="B129" s="15">
         <v>53.045200000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>214</v>
       </c>
       <c r="B130" s="15">
         <v>53.616199999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" s="18">
+        <f t="shared" ref="C130" si="29">AVERAGE(B127:B130)</f>
+        <v>53.137599999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>215</v>
       </c>
       <c r="B131" s="15">
         <v>54.128399999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B132" s="15">
         <v>54.605600000000003</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>217</v>
       </c>
       <c r="B133" s="15">
         <v>54.542299999999997</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>218</v>
       </c>
       <c r="B134" s="15">
         <v>55.122</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" s="18">
+        <f t="shared" ref="C134" si="30">AVERAGE(B131:B134)</f>
+        <v>54.599575000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>219</v>
       </c>
       <c r="B135" s="15">
         <v>55.8919</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>220</v>
       </c>
       <c r="B136" s="15">
         <v>56.215600000000002</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>221</v>
       </c>
       <c r="B137" s="15">
         <v>57.4435</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>222</v>
       </c>
       <c r="B138" s="15">
         <v>58.573799999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="18">
+        <f t="shared" ref="C138" si="31">AVERAGE(B135:B138)</f>
+        <v>57.031199999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>223</v>
       </c>
       <c r="B139" s="15">
         <v>59.219000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>224</v>
       </c>
       <c r="B140" s="15">
         <v>59.741399999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B141" s="15">
         <v>60.761299999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>226</v>
       </c>
       <c r="B142" s="15">
         <v>61.195700000000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" s="18">
+        <f t="shared" ref="C142" si="32">AVERAGE(B139:B142)</f>
+        <v>60.229349999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B143" s="15">
         <v>62.404899999999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>228</v>
       </c>
       <c r="B144" s="15">
         <v>62.546799999999998</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>229</v>
       </c>
       <c r="B145" s="15">
         <v>63.198</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>230</v>
       </c>
       <c r="B146" s="15">
         <v>63.530299999999997</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" s="18">
+        <f t="shared" ref="C146" si="33">AVERAGE(B143:B146)</f>
+        <v>62.92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>231</v>
       </c>
       <c r="B147" s="15">
         <v>65.453500000000005</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>232</v>
       </c>
       <c r="B148" s="15">
         <v>65.367599999999996</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>233</v>
       </c>
       <c r="B149" s="15">
         <v>66.271000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>234</v>
       </c>
       <c r="B150" s="15">
         <v>67.790199999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" s="18">
+        <f t="shared" ref="C150" si="34">AVERAGE(B147:B150)</f>
+        <v>66.220574999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B151" s="15">
         <v>69.040499999999994</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>236</v>
       </c>
       <c r="B152" s="15">
         <v>69.088999999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>237</v>
       </c>
       <c r="B153" s="15">
         <v>70.323400000000007</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>238</v>
       </c>
       <c r="B154" s="15">
         <v>70.122299999999996</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" s="18">
+        <f t="shared" ref="C154" si="35">AVERAGE(B151:B154)</f>
+        <v>69.643799999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>239</v>
       </c>
       <c r="B155" s="15">
         <v>70.518900000000002</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B156" s="15">
         <v>70.6053</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>241</v>
       </c>
       <c r="B157" s="15">
         <v>70.122</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>242</v>
       </c>
       <c r="B158" s="15">
         <v>70.328500000000005</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" s="18">
+        <f t="shared" ref="C158" si="36">AVERAGE(B155:B158)</f>
+        <v>70.393675000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B159" s="15">
         <v>70.772300000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B160" s="15">
         <v>72.105999999999995</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>245</v>
       </c>
       <c r="B161" s="15">
         <v>72.201300000000003</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>246</v>
       </c>
       <c r="B162" s="15">
         <v>73.167400000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" s="18">
+        <f t="shared" ref="C162" si="37">AVERAGE(B159:B162)</f>
+        <v>72.061750000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>247</v>
       </c>
       <c r="B163" s="15">
         <v>73.839299999999994</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>248</v>
       </c>
       <c r="B164" s="15">
         <v>73.321200000000005</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>249</v>
       </c>
       <c r="B165" s="15">
         <v>73.4559</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>250</v>
       </c>
       <c r="B166" s="15">
         <v>73.291600000000003</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" s="18">
+        <f t="shared" ref="C166" si="38">AVERAGE(B163:B166)</f>
+        <v>73.477000000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>251</v>
       </c>
       <c r="B167" s="15">
         <v>74.861900000000006</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>252</v>
       </c>
       <c r="B168" s="15">
         <v>74.966300000000004</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>253</v>
       </c>
       <c r="B169" s="15">
         <v>74.245699999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>254</v>
       </c>
       <c r="B170" s="15">
         <v>74.290800000000004</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" s="18">
+        <f t="shared" ref="C170" si="39">AVERAGE(B167:B170)</f>
+        <v>74.591175000000007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>255</v>
       </c>
       <c r="B171" s="15">
         <v>74.722700000000003</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>256</v>
       </c>
       <c r="B172" s="15">
         <v>74.816500000000005</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>257</v>
       </c>
       <c r="B173" s="15">
         <v>74.010400000000004</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>258</v>
       </c>
       <c r="B174" s="15">
         <v>74.096900000000005</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174" s="18">
+        <f t="shared" ref="C174" si="40">AVERAGE(B171:B174)</f>
+        <v>74.411625000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>259</v>
       </c>
       <c r="B175" s="15">
         <v>74.240099999999998</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>260</v>
       </c>
       <c r="B176" s="15">
         <v>76.559299999999993</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>261</v>
       </c>
       <c r="B177" s="15">
         <v>75.898600000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>262</v>
       </c>
       <c r="B178" s="15">
         <v>76.702600000000004</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" s="18">
+        <f t="shared" ref="C178" si="41">AVERAGE(B175:B178)</f>
+        <v>75.850149999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>263</v>
       </c>
       <c r="B179" s="15">
         <v>76.7012</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>264</v>
       </c>
       <c r="B180" s="15">
         <v>75.555999999999997</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>265</v>
       </c>
       <c r="B181" s="15">
         <v>74.949600000000004</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>266</v>
       </c>
       <c r="B182" s="15">
         <v>75.317899999999995</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" s="18">
+        <f t="shared" ref="C182" si="42">AVERAGE(B179:B182)</f>
+        <v>75.631174999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>267</v>
       </c>
       <c r="B183" s="15">
         <v>76.165899999999993</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>268</v>
       </c>
       <c r="B184" s="15">
         <v>77.117599999999996</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
         <v>269</v>
       </c>
       <c r="B185" s="15">
         <v>78.174300000000002</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>270</v>
       </c>
       <c r="B186" s="15">
         <v>76.966899999999995</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" s="18">
+        <f t="shared" ref="C186" si="43">AVERAGE(B183:B186)</f>
+        <v>77.106175000000007</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
         <v>271</v>
       </c>
       <c r="B187" s="15">
         <v>77.978200000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
         <v>272</v>
       </c>
       <c r="B188" s="15">
         <v>79.217299999999994</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>273</v>
       </c>
       <c r="B189" s="15">
         <v>79.492500000000007</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
         <v>274</v>
       </c>
       <c r="B190" s="15">
         <v>79.357500000000002</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190" s="18">
+        <f t="shared" ref="C190" si="44">AVERAGE(B187:B190)</f>
+        <v>79.011375000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>275</v>
       </c>
       <c r="B191" s="15">
         <v>80.043499999999995</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>276</v>
       </c>
       <c r="B192" s="15">
         <v>81.086500000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>277</v>
       </c>
       <c r="B193" s="15">
         <v>82.2881</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>278</v>
       </c>
       <c r="B194" s="15">
         <v>82.600899999999996</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" s="18">
+        <f t="shared" ref="C194" si="45">AVERAGE(B191:B194)</f>
+        <v>81.504750000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>279</v>
       </c>
       <c r="B195" s="15">
         <v>83.845200000000006</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B196" s="15">
         <v>83.566599999999994</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>281</v>
       </c>
       <c r="B197" s="15">
         <v>84.042400000000001</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>282</v>
       </c>
       <c r="B198" s="15">
         <v>85.201899999999995</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" s="18">
+        <f t="shared" ref="C198" si="46">AVERAGE(B195:B198)</f>
+        <v>84.164025000000009</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
         <v>283</v>
       </c>
       <c r="B199" s="15">
         <v>85.027600000000007</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>284</v>
       </c>
       <c r="B200" s="15">
         <v>86.543800000000005</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>285</v>
       </c>
       <c r="B201" s="15">
         <v>86.9495</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>286</v>
       </c>
       <c r="B202" s="15">
         <v>87.314700000000002</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" s="18">
+        <f t="shared" ref="C202" si="47">AVERAGE(B199:B202)</f>
+        <v>86.4589</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
         <v>287</v>
       </c>
       <c r="B203" s="15">
         <v>88.474900000000005</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B204" s="15">
         <v>92.971400000000003</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>289</v>
       </c>
       <c r="B205" s="15">
         <v>95.389899999999997</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>290</v>
       </c>
       <c r="B206" s="15">
         <v>93.288200000000003</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" s="18">
+        <f t="shared" ref="C206" si="48">AVERAGE(B203:B206)</f>
+        <v>92.531100000000009</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>291</v>
       </c>
       <c r="B207" s="15">
         <v>95.293000000000006</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>292</v>
       </c>
       <c r="B208" s="15">
         <v>93.490099999999998</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
         <v>293</v>
       </c>
       <c r="B209" s="15">
         <v>93.643199999999993</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>294</v>
       </c>
       <c r="B210" s="15">
         <v>95.334400000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" s="18">
+        <f t="shared" ref="C210" si="49">AVERAGE(B207:B210)</f>
+        <v>94.440174999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>295</v>
       </c>
       <c r="B211" s="15">
         <v>97.542400000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
         <v>296</v>
       </c>
       <c r="B212" s="15">
         <v>98.870400000000004</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
         <v>297</v>
       </c>
       <c r="B213" s="15">
         <v>100.9466</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
         <v>298</v>
       </c>
       <c r="B214" s="15">
         <v>102.624</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" s="18">
+        <f t="shared" ref="C214" si="50">AVERAGE(B211:B214)</f>
+        <v>99.99584999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>299</v>
       </c>
       <c r="B215" s="15">
         <v>104.05840000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
         <v>300</v>
       </c>
       <c r="B216" s="15">
         <v>106.538</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
         <v>301</v>
       </c>
       <c r="B217" s="15">
         <v>108.2902</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>302</v>
       </c>
       <c r="B218" s="15">
         <v>108.4242</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" s="18">
+        <f t="shared" ref="C218" si="51">AVERAGE(B215:B218)</f>
+        <v>106.82770000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>303</v>
       </c>
       <c r="B219" s="15">
         <v>109.3366</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
         <v>304</v>
       </c>
       <c r="B220" s="15">
         <v>110.3741</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
         <v>305</v>
       </c>
       <c r="B221" s="15">
         <v>110.43819999999999</v>
+      </c>
+      <c r="C221" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -78160,15 +79035,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100366FE8C85E70484CA6E47CDF031DEDC1" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39a28afb6bfd1532f30453894a73da6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e572c8d-6813-4013-8a4a-be491ac59459" xmlns:ns3="96a98433-1569-4222-be80-afd48d89a184" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c6cf37292414ab3c2182af2094a228db" ns2:_="" ns3:_="">
     <xsd:import namespace="1e572c8d-6813-4013-8a4a-be491ac59459"/>
@@ -78431,6 +79297,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E717A83-36AF-4AA0-AA15-078B8B1D425B}">
   <ds:schemaRefs>
@@ -78443,14 +79318,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C067F14-C583-4282-BAC3-F7DBA999A556}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6796C88-1DC3-452A-B59B-AACE88C87C70}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -78467,4 +79334,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C067F14-C583-4282-BAC3-F7DBA999A556}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Economics/Dissertation/Relevant Data/Labour Costs and Shares.xlsx
+++ b/Economics/Dissertation/Relevant Data/Labour Costs and Shares.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University Documents\Notes\PPE\Shared Notes\Economics\Dissertation\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E38A683-9CE0-4D93-B146-4A40EBCA5AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A05E9E-4500-4F53-B2FA-D12060FA3DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_sheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <sheet name="Table_19" sheetId="23" r:id="rId23"/>
     <sheet name="Table_20" sheetId="24" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1688,7 +1688,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1736,6 +1736,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -2580,7 +2581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -48460,8 +48461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59390,7 +59391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:D56"/>
     </sheetView>
   </sheetViews>
@@ -59432,7 +59433,7 @@
       <c r="B4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="19">
         <v>3.3544499999999999</v>
       </c>
     </row>
@@ -59443,7 +59444,7 @@
       <c r="B5" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="19">
         <v>3.7458749999999998</v>
       </c>
     </row>
@@ -59454,7 +59455,7 @@
       <c r="B6" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="19">
         <v>4.2675749999999999</v>
       </c>
     </row>
@@ -59468,7 +59469,7 @@
       <c r="C7" t="s">
         <v>484</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="19">
         <v>5.1145750000000003</v>
       </c>
     </row>
@@ -59482,7 +59483,7 @@
       <c r="C8" t="s">
         <v>484</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="19">
         <v>6.8023500000000006</v>
       </c>
     </row>
@@ -59496,7 +59497,7 @@
       <c r="C9" t="s">
         <v>484</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="19">
         <v>7.8351749999999996</v>
       </c>
     </row>
@@ -59511,7 +59512,7 @@
         <f>AVERAGE(B7:B10)</f>
         <v>3.3544499999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="19">
         <v>8.5522500000000008</v>
       </c>
     </row>
@@ -59525,7 +59526,7 @@
       <c r="C11" t="s">
         <v>484</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="19">
         <v>9.6730499999999999</v>
       </c>
     </row>
@@ -59539,7 +59540,7 @@
       <c r="C12" t="s">
         <v>484</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="19">
         <v>11.224675000000001</v>
       </c>
     </row>
@@ -59553,7 +59554,7 @@
       <c r="C13" t="s">
         <v>484</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="19">
         <v>13.602425</v>
       </c>
     </row>
@@ -59568,7 +59569,7 @@
         <f t="shared" ref="C14" si="0">AVERAGE(B11:B14)</f>
         <v>3.7458749999999998</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="19">
         <v>15.500775000000001</v>
       </c>
     </row>
@@ -59582,7 +59583,7 @@
       <c r="C15" t="s">
         <v>484</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="19">
         <v>16.886425000000003</v>
       </c>
     </row>
@@ -59596,7 +59597,7 @@
       <c r="C16" t="s">
         <v>484</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="19">
         <v>18.232899999999997</v>
       </c>
     </row>
@@ -59610,7 +59611,7 @@
       <c r="C17" t="s">
         <v>484</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="19">
         <v>19.068625000000001</v>
       </c>
     </row>
@@ -59625,7 +59626,7 @@
         <f t="shared" ref="C18" si="1">AVERAGE(B15:B18)</f>
         <v>4.2675749999999999</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="19">
         <v>20.227824999999999</v>
       </c>
     </row>
@@ -59639,7 +59640,7 @@
       <c r="C19" t="s">
         <v>484</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="19">
         <v>21.818674999999999</v>
       </c>
     </row>
@@ -59653,7 +59654,7 @@
       <c r="C20" t="s">
         <v>484</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="19">
         <v>22.892899999999997</v>
       </c>
     </row>
@@ -59667,7 +59668,7 @@
       <c r="C21" t="s">
         <v>484</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="19">
         <v>24.538825000000003</v>
       </c>
     </row>
@@ -59682,7 +59683,7 @@
         <f t="shared" ref="C22" si="2">AVERAGE(B19:B22)</f>
         <v>5.1145750000000003</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="19">
         <v>26.558399999999999</v>
       </c>
     </row>
@@ -59696,7 +59697,7 @@
       <c r="C23" t="s">
         <v>484</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="19">
         <v>29.5106</v>
       </c>
     </row>
@@ -59710,7 +59711,7 @@
       <c r="C24" t="s">
         <v>484</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="19">
         <v>32.763600000000004</v>
       </c>
     </row>
@@ -59724,7 +59725,7 @@
       <c r="C25" t="s">
         <v>484</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="19">
         <v>34.944974999999999</v>
       </c>
     </row>
@@ -59739,7 +59740,7 @@
         <f t="shared" ref="C26" si="3">AVERAGE(B23:B26)</f>
         <v>6.8023500000000006</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="19">
         <v>36.514675000000004</v>
       </c>
     </row>
@@ -59753,7 +59754,7 @@
       <c r="C27" t="s">
         <v>484</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="19">
         <v>37.227275000000006</v>
       </c>
     </row>
@@ -59767,7 +59768,7 @@
       <c r="C28" t="s">
         <v>484</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="19">
         <v>38.461874999999999</v>
       </c>
     </row>
@@ -59781,7 +59782,7 @@
       <c r="C29" t="s">
         <v>484</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="19">
         <v>40.017300000000006</v>
       </c>
     </row>
@@ -59796,7 +59797,7 @@
         <f t="shared" ref="C30" si="4">AVERAGE(B27:B30)</f>
         <v>7.8351749999999996</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="19">
         <v>42.1203</v>
       </c>
     </row>
@@ -59810,7 +59811,7 @@
       <c r="C31" t="s">
         <v>484</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="19">
         <v>43.936875000000001</v>
       </c>
     </row>
@@ -59824,7 +59825,7 @@
       <c r="C32" t="s">
         <v>484</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="19">
         <v>47.127775</v>
       </c>
     </row>
@@ -59838,7 +59839,7 @@
       <c r="C33" t="s">
         <v>484</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="19">
         <v>50.432699999999997</v>
       </c>
     </row>
@@ -59853,7 +59854,7 @@
         <f t="shared" ref="C34" si="5">AVERAGE(B31:B34)</f>
         <v>8.5522500000000008</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="19">
         <v>53.137599999999999</v>
       </c>
     </row>
@@ -59867,7 +59868,7 @@
       <c r="C35" t="s">
         <v>484</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="19">
         <v>54.599575000000002</v>
       </c>
     </row>
@@ -59881,7 +59882,7 @@
       <c r="C36" t="s">
         <v>484</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="19">
         <v>57.031199999999998</v>
       </c>
     </row>
@@ -59895,7 +59896,7 @@
       <c r="C37" t="s">
         <v>484</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="19">
         <v>60.229349999999997</v>
       </c>
     </row>
@@ -59910,7 +59911,7 @@
         <f t="shared" ref="C38" si="6">AVERAGE(B35:B38)</f>
         <v>9.6730499999999999</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="19">
         <v>62.92</v>
       </c>
     </row>
@@ -59924,7 +59925,7 @@
       <c r="C39" t="s">
         <v>484</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="19">
         <v>66.220574999999997</v>
       </c>
     </row>
@@ -59938,7 +59939,7 @@
       <c r="C40" t="s">
         <v>484</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="19">
         <v>69.643799999999999</v>
       </c>
     </row>
@@ -59952,7 +59953,7 @@
       <c r="C41" t="s">
         <v>484</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="19">
         <v>70.393675000000002</v>
       </c>
     </row>
@@ -59967,7 +59968,7 @@
         <f t="shared" ref="C42" si="7">AVERAGE(B39:B42)</f>
         <v>11.224675000000001</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="19">
         <v>72.061750000000004</v>
       </c>
     </row>
@@ -59981,7 +59982,7 @@
       <c r="C43" t="s">
         <v>484</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="19">
         <v>73.477000000000004</v>
       </c>
     </row>
@@ -59995,7 +59996,7 @@
       <c r="C44" t="s">
         <v>484</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="19">
         <v>74.591175000000007</v>
       </c>
     </row>
@@ -60009,7 +60010,7 @@
       <c r="C45" t="s">
         <v>484</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="19">
         <v>74.411625000000001</v>
       </c>
     </row>
@@ -60024,7 +60025,7 @@
         <f t="shared" ref="C46" si="8">AVERAGE(B43:B46)</f>
         <v>13.602425</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="19">
         <v>75.850149999999999</v>
       </c>
     </row>
@@ -60038,7 +60039,7 @@
       <c r="C47" t="s">
         <v>484</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="19">
         <v>75.631174999999999</v>
       </c>
     </row>
@@ -60052,7 +60053,7 @@
       <c r="C48" t="s">
         <v>484</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="19">
         <v>77.106175000000007</v>
       </c>
     </row>
@@ -60066,7 +60067,7 @@
       <c r="C49" t="s">
         <v>484</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="19">
         <v>79.011375000000001</v>
       </c>
     </row>
@@ -60081,7 +60082,7 @@
         <f t="shared" ref="C50" si="9">AVERAGE(B47:B50)</f>
         <v>15.500775000000001</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="19">
         <v>81.504750000000001</v>
       </c>
     </row>
@@ -60095,7 +60096,7 @@
       <c r="C51" t="s">
         <v>484</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="19">
         <v>84.164025000000009</v>
       </c>
     </row>
@@ -60109,7 +60110,7 @@
       <c r="C52" t="s">
         <v>484</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="19">
         <v>86.4589</v>
       </c>
     </row>
@@ -60123,7 +60124,7 @@
       <c r="C53" t="s">
         <v>484</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="19">
         <v>92.531100000000009</v>
       </c>
     </row>
@@ -60138,7 +60139,7 @@
         <f t="shared" ref="C54" si="10">AVERAGE(B51:B54)</f>
         <v>16.886425000000003</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="19">
         <v>94.440174999999996</v>
       </c>
     </row>
@@ -60152,7 +60153,7 @@
       <c r="C55" t="s">
         <v>484</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="19">
         <v>99.99584999999999</v>
       </c>
     </row>
@@ -60166,7 +60167,7 @@
       <c r="C56" t="s">
         <v>484</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="19">
         <v>106.82770000000001</v>
       </c>
     </row>
@@ -79035,6 +79036,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100366FE8C85E70484CA6E47CDF031DEDC1" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39a28afb6bfd1532f30453894a73da6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e572c8d-6813-4013-8a4a-be491ac59459" xmlns:ns3="96a98433-1569-4222-be80-afd48d89a184" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c6cf37292414ab3c2182af2094a228db" ns2:_="" ns3:_="">
     <xsd:import namespace="1e572c8d-6813-4013-8a4a-be491ac59459"/>
@@ -79297,15 +79307,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E717A83-36AF-4AA0-AA15-078B8B1D425B}">
   <ds:schemaRefs>
@@ -79318,6 +79319,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C067F14-C583-4282-BAC3-F7DBA999A556}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6796C88-1DC3-452A-B59B-AACE88C87C70}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -79334,12 +79343,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C067F14-C583-4282-BAC3-F7DBA999A556}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Economics/Dissertation/Relevant Data/Labour Costs and Shares.xlsx
+++ b/Economics/Dissertation/Relevant Data/Labour Costs and Shares.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University Documents\Notes\PPE\Shared Notes\Economics\Dissertation\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A05E9E-4500-4F53-B2FA-D12060FA3DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52A539E-1B47-4055-AF09-A73AE9B8C2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_sheet" sheetId="1" r:id="rId1"/>
@@ -1761,6 +1761,1364 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Labour share</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of income, 1955-2019</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Table_9!$A$7:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table_9!$B$7:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>71.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.863200000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.655900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.486000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.081000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.321600000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.402500000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.619900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.322599999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.898799999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.990399999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.738200000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.349500000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.014300000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.799899999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.153199999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.849900000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.203400000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64.776499999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.9071</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.850700000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.980900000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.961699999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63.662100000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.1509</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.966299999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62.873899999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.782200000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.665599999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.4574</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57.136899999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57.719900000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>55.664299999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55.290500000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>55.429099999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.068399999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57.137900000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57.339100000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>55.999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55.066800000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55.063400000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.933700000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55.340800000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>55.701900000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>57.957999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.000399999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.1113</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>59.295699999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58.8142</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59.697499999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59.451999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59.834600000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60.578299999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>59.360599999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.418700000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.492100000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60.046100000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.3185</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.4114</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>58.281199999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>58.608400000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>58.577100000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>58.433999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>58.886400000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>59.148800000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>59.486499999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59.819099999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>59.530900000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>59.040500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2782-4A99-8F84-FE1366308CDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="669759792"/>
+        <c:axId val="669760752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="669759792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669760752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669760752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669759792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D48DDE-4732-4577-ABFC-C0DB67250299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_of_contents_1" displayName="Table_of_contents_1" ref="A4:E6" totalsRowShown="0">
   <tableColumns count="5">
@@ -6053,8 +7411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6951,8 +8309,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -48461,8 +49820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76762,7 +78121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -79036,15 +80395,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100366FE8C85E70484CA6E47CDF031DEDC1" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39a28afb6bfd1532f30453894a73da6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e572c8d-6813-4013-8a4a-be491ac59459" xmlns:ns3="96a98433-1569-4222-be80-afd48d89a184" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c6cf37292414ab3c2182af2094a228db" ns2:_="" ns3:_="">
     <xsd:import namespace="1e572c8d-6813-4013-8a4a-be491ac59459"/>
@@ -79307,6 +80657,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E717A83-36AF-4AA0-AA15-078B8B1D425B}">
   <ds:schemaRefs>
@@ -79319,14 +80678,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C067F14-C583-4282-BAC3-F7DBA999A556}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6796C88-1DC3-452A-B59B-AACE88C87C70}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -79343,4 +80694,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C067F14-C583-4282-BAC3-F7DBA999A556}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>